--- a/data/trans_camb/P14_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>15,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,37</t>
+          <t>15,73</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 18,57</t>
+          <t>9,06; 21,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,04</t>
+          <t>9,93; 23,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,85</t>
+          <t>11,56; 20,75</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>470,3%</t>
+          <t>652,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>474,49%</t>
+          <t>499,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>472,61%</t>
+          <t>556,48%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>172,84; 1206,94</t>
+          <t>169,89; 3119,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>204,84; 1005,17</t>
+          <t>169,33; 1606,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>240,96; 882,01</t>
+          <t>230,75; 1164,56</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>18,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,01</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,27</t>
+          <t>17,47</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 25,48</t>
+          <t>11,85; 25,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 21,9</t>
+          <t>9,91; 24,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 21,81</t>
+          <t>12,64; 22,63</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1985,58%</t>
+          <t>2182,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>316,58%</t>
+          <t>358,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>554,66%</t>
+          <t>593,4%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>402,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,97; 691,8</t>
+          <t>123,16; 1029,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>230,89; 1102,57</t>
+          <t>242,04; 1236,48</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,01</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,76</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>17,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 30,03</t>
+          <t>-0,02; 31,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 31,99</t>
+          <t>7,45; 37,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 27,46</t>
+          <t>7,31; 30,69</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>304,24%</t>
+          <t>485,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1029,65%</t>
+          <t>690,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>503,32%</t>
+          <t>599,41%</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2510,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>114,95; 2206,55</t>
+          <t>52,42; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>16,63</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,89</t>
+          <t>11,48; 20,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,55</t>
+          <t>12,47; 21,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,2</t>
+          <t>13,45; 19,6</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>678,39%</t>
+          <t>919,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>416,87%</t>
+          <t>443,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>510,96%</t>
+          <t>576,2%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>346,41; 1403,19</t>
+          <t>293,89; 2214,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>213,61; 720,77</t>
+          <t>221,46; 835,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>318,01; 778,47</t>
+          <t>355,66; 989,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>16,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,73</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.33734574321466</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.31551913560548</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.40890552292344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>9,06; 21,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 23,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,56; 20,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>9.324102827415286</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10.69477687689138</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>12.02921538734105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>652,4%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>499,95%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>556,48%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.52460251499547</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.56233920745909</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.70003311483651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>169,89; 3119,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>169,33; 1606,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>230,75; 1164,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.051965168772487</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5.385767002671938</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5.989259510683278</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.809619740552776</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.8249251880275</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>2.545574087839601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>11,85; 25,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,91; 24,99</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>12,64; 22,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>33.14695084409028</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>16.58037911586699</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>12.72410764621482</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2182,14%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>358,45%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>593,4%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>18.02155301945594</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.65928416778179</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>17.28588849377178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>123,16; 1029,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>242,04; 1236,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>11.67168509071403</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>9.885255083775835</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>12.74914159432699</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.08872879512734</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.73029833358055</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.81649467908177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 31,69</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 37,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 30,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>26.36032619710235</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>3.670502075057937</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>6.421480145740415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>485,21%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>690,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>599,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>1.129630351337835</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.663342950546693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>52,42; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>10.5010617001212</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>13.3876551802192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +771,199 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>16,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>16,63</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>12.51468247401269</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>23.38079177722917</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>18.17127055193406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>11,48; 20,76</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 21,8</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>13,45; 19,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.06798365280574581</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>8.132353318590033</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>7.750540165984702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>919,34%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>443,64%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>576,2%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>31.12826811420014</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>40.62755536914031</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>31.31345186327881</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>293,89; 2214,05</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>221,46; 835,79</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>355,66; 989,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>4.395849174493709</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>7.064590579370422</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>5.878233251463201</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>0.5131597364335081</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>16.18073040491044</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>17.66673102128967</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>16.95172264602004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>11.48370190805207</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>12.9948033468546</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>13.72267640907409</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>21.06280033072713</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>22.66629836505872</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>19.87823728530118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>9.991059542607653</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.706719613723677</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>6.151177940741887</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>3.017354338270003</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.361819456156709</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.735545397497007</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>23.13286374527125</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>9.20150197465469</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>10.54172366354386</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +971,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
